--- a/graph_generation/results_prelim/gpt3.5/level_3/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_3/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>prompt</t>
   </si>
@@ -28,7 +30,10 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: what is the shortest path from node A to node G?
    A B C D E F G H I
@@ -44,46 +49,217 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 what is the shortest path from node A to node J?
-   A B C D E F G H I J K L M N
- A 0 1 0 1 0 0 0 0 0 0 1 0 0 1
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 1 1 1 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- K 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- N 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 1
+ E 0 0 0 1 0 1 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 1
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 1 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; D -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J in the given adjacency matrix, we can use the Breadth-First Search (BFS) algorithm.
-Starting from node A, we can explore all the adjacent nodes. Then, for each adjacent node, we explore their adjacent nodes, and so on, until we reach node J. During this exploration, we keep track of the distance from the starting node A to each visited node.
-Here is the step-by-step process to find the shortest path from node A to node J:
-1. Initialize a queue to hold the nodes to be visited. Initially, enqueue node A and mark it as visited.
-2. Initialize a distance array to keep track of the distance from node A to each visited node. Set the distance of node A to 0 and the distance of all other nodes to infinity.
-3. Start the BFS algorithm:
-   - While the queue is not empty:
-     - Dequeue a node from the queue.
-     - Check if the dequeued node is node J. If it is, the shortest path from node A to node J has been found. 
-     - Otherwise, for each adjacent node of the dequeued node that has not been visited:
-       - Mark the adjacent node as visited.
-       - Enqueue the adjacent node.
-       - Update the distance of the adjacent node to be the distance of the dequeued node plus 1.
-4. If the BFS algorithm completes without reaching node J, it means that there is no path from node A to node J.
-5. To obtain the shortest path from node A to node J, start from node J and backtrack using the distance array. Follow the path with decreasing distance until reaching node A. This will give the shortest path.
-Applying this algorithm to the given adjacency matrix will give the shortest path from node A to node J.</t>
+    <t>A -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use the breadth-first search (BFS) algorithm.
+Starting from node A, we explore all neighboring nodes and mark them as visited.
+Then, we move to the next level of nodes - the neighbors of the previously visited nodes, and continue this process until we reach node J.
+Here is the step-by-step process:
+1. Start at node A.
+2. Visit its neighbor B since there is a connection.
+3. Visit the neighbors of B - nodes C and F.
+4. Visit the neighbor of C - node D.
+5. Visit the neighbor of F - node G.
+6. Visit the neighbor of D - node E.
+7. Visit the neighbor of G - no neighbors.
+8. Visit the neighbor of E - node J.
+We have now reached node J, and this is the shortest path from node A to node J: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J.
+So, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 2/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node R?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ C 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; F -&gt; H -&gt; I -&gt; M -&gt; O -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use the breadth-first search algorithm. 
+Starting from node A, we will explore its neighboring nodes and add them to a queue. We will also keep track of the parents of each node discovered to reconstruct the shortest path later. 
+Here is a step-by-step process:
+1. Set a queue to store the nodes to be explored and a list to mark whether a node has been visited.
+2. Initialize the visited list and queue. Mark node A as visited and enqueue it.
+3. Repeat the following steps until the queue is empty:
+   4. Dequeue a node from the queue.
+   5. If the dequeued node is the target node T, we have found the shortest path. Stop.
+   6. Otherwise, add all unvisited neighboring nodes of the dequeued node to the queue and mark them as visited. Also, record their parent as the dequeued node.
+7. If the queue becomes empty and we have not reached the target node T, there is no path from node A to node T.
+Let's apply this algorithm to the given adjacency matrix:
+1. Set a queue to store the nodes to be explored and a list to mark whether a node has been visited.
+2. Initialize the visited list and queue. Mark node A as visited and enqueue it.
+3. Repeat the following steps until the queue is empty:
+   4. Dequeue a node from the queue. (First node: A)
+   5. If the dequeued node is the target node T, we have found the shortest path. Stop.
+   6. Otherwise, add all unvisited neighboring nodes of the dequeued node to the queue and mark them as visited. Also, record their parent as the dequeued node. (Next nodes: B, C)
+7. If the queue becomes empty and we have not reached the target node T, there is no path from node A to node T.
+The shortest path from node A to node T is A -&gt; C -&gt; M -&gt; N -&gt; P -&gt; S -&gt; T.</t>
+  </si>
+  <si>
+    <t>Output: 1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node R?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; J -&gt; V -&gt; U -&gt; P -&gt; Q -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use a graph traversal algorithm such as Breadth-First Search (BFS) or Dijkstra's algorithm.
+Using BFS:
+1. Initialize an empty queue and an empty set to track visited nodes.
+2. Enqueue node A into the queue.
+3. While the queue is not empty:
+     - Dequeue a node from the front of the queue.
+     - If the dequeued node is T, we have found the shortest path.
+     - Otherwise, enqueue all the neighboring nodes of the dequeued node that have not been visited before.
+4. If we reach this point, it means that there is no path from A to T.
+Using Dijkstra's algorithm:
+1. Initialize an empty priority queue and an empty dictionary to track the distance from A to each node.
+2. Enqueue (A, 0) into the priority queue, where 0 is the initial distance.
+3. While the priority queue is not empty:
+     - Dequeue a node from the front of the priority queue.
+     - If the dequeued node is T, we have found the shortest path.
+     - Otherwise, update the distance of each neighboring node of the dequeued node and enqueue it into the priority queue.
+4. If we reach this point, it means that there is no path from A to T.
+Note: In the adjacency matrix given, there is no connection between node A and node T. Therefore, there is no shortest path from A to T.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Output: 0/0</t>
   </si>
 </sst>
 </file>
@@ -441,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,19 +636,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_3/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_3/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -33,9 +33,9 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node G?
+Example 1: what is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 0 0 0 0 1 0
  B 1 0 1 0 0 1 0 1 1
@@ -48,50 +48,98 @@
  I 0 1 0 0 0 1 0 0 0
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node J?
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 1
- E 0 0 0 1 0 1 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 1
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 1 0 0 0 1 0 0 0
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0
+ B 1 0 1 1 1 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 1 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use the breadth-first search (BFS) algorithm.
-Starting from node A, we explore all neighboring nodes and mark them as visited.
-Then, we move to the next level of nodes - the neighbors of the previously visited nodes, and continue this process until we reach node J.
-Here is the step-by-step process:
-1. Start at node A.
-2. Visit its neighbor B since there is a connection.
-3. Visit the neighbors of B - nodes C and F.
-4. Visit the neighbor of C - node D.
-5. Visit the neighbor of F - node G.
-6. Visit the neighbor of D - node E.
-7. Visit the neighbor of G - no neighbors.
-8. Visit the neighbor of E - node J.
-We have now reached node J, and this is the shortest path from node A to node J: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J.
-So, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J.</t>
+    <t>A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use a breadth-first search (BFS) algorithm. Starting at node A, we will explore all neighboring nodes one level at a time until we reach node J.
+The BFS algorithm proceeds as follows:
+1. Initialize a queue and an empty list to store the visited nodes.
+2. Enqueue node A into the queue.
+3. While the queue is not empty:
+     a. Dequeue a node from the queue and add it to the visited list.
+     b. If the dequeued node is equal to node J, we have found the shortest path. Return the visited list.
+     c. Otherwise, enqueue all unvisited neighboring nodes of the dequeued node into the queue.
+4. If the queue becomes empty and we have not reached node J, there is no path from node A to node J.
+Applying the above steps to the given example:
+1. Initialize the queue with node A and create an empty visited list.
+2. Dequeue node A and add it to the visited list.
+3. Check the neighbors of node A: B and K.
+     - Enqueue node B.
+     - Enqueue node K.
+4. Dequeue node B and add it to the visited list.
+5. Check the neighbors of node B: A, C, D, E, F, H, and I.
+     - Skip node A as it has already been visited.
+     - Enqueue node C.
+     - Enqueue node D.
+     - Enqueue node E.
+     - Enqueue node F.
+     - Enqueue node H.
+     - Enqueue node I.
+6. Dequeue node K and add it to the visited list.
+7. Check the neighbors of node K: A and L.
+     - Skip node A as it has already been visited.
+     - Enqueue node L.
+8. Dequeue node C and add it to the visited list.
+9. Check the neighbors of node C: B.
+     - Skip node B as it has already been visited.
+10. Dequeue node D and add it to the visited list.
+11. Check the neighbors of node D: B.
+     - Skip node B as it has already been visited.
+12. Dequeue node E and add it to the visited list.
+13. Check the neighbors of node E: B and F.
+     - Skip node B as it has already been visited.
+     - Enqueue node F.
+14. Dequeue node F and add it to the visited list.
+15. Check the neighbors of node F: B, E, and G.
+     - Skip node B as it has already been visited.
+     - Skip node E as it has already been visited.
+     - Enqueue node G.
+16. Dequeue node H and add it to the visited list.
+17. Check the neighbors of node H: B and I.
+     - Skip node B as it has already been visited.
+     - Enqueue node I.
+18. Dequeue node I and add it to the visited list.
+19. Check the neighbors of node I: B and H.
+     - Skip node B as it has already been visited.
+     - Skip node H as it has already been visited.
+20. Dequeue node L and add it to the visited list.
+21. Check the neighbors of node L: K and M.
+     - Skip node K as it has already been visited.
+     - Enqueue node M.
+22. Dequeue node M and add it to the visited list.
+23. Check the neighbors of node M: L.
+     - Skip node L as it has already been visited.
+24. The queue is now empty, and we have not reached node J. There is no path from node A to node J.
+Therefore, there is no shortest path from node A to node J in the given graph.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 2/6</t>
+    <t>0/6</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node R?
+Example 1: what is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
  B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -120,64 +168,59 @@
  Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- C 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0
  S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ V 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ W 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; H -&gt; I -&gt; M -&gt; O -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use the breadth-first search algorithm. 
-Starting from node A, we will explore its neighboring nodes and add them to a queue. We will also keep track of the parents of each node discovered to reconstruct the shortest path later. 
-Here is a step-by-step process:
-1. Set a queue to store the nodes to be explored and a list to mark whether a node has been visited.
-2. Initialize the visited list and queue. Mark node A as visited and enqueue it.
-3. Repeat the following steps until the queue is empty:
-   4. Dequeue a node from the queue.
-   5. If the dequeued node is the target node T, we have found the shortest path. Stop.
-   6. Otherwise, add all unvisited neighboring nodes of the dequeued node to the queue and mark them as visited. Also, record their parent as the dequeued node.
-7. If the queue becomes empty and we have not reached the target node T, there is no path from node A to node T.
-Let's apply this algorithm to the given adjacency matrix:
-1. Set a queue to store the nodes to be explored and a list to mark whether a node has been visited.
-2. Initialize the visited list and queue. Mark node A as visited and enqueue it.
-3. Repeat the following steps until the queue is empty:
-   4. Dequeue a node from the queue. (First node: A)
-   5. If the dequeued node is the target node T, we have found the shortest path. Stop.
-   6. Otherwise, add all unvisited neighboring nodes of the dequeued node to the queue and mark them as visited. Also, record their parent as the dequeued node. (Next nodes: B, C)
-7. If the queue becomes empty and we have not reached the target node T, there is no path from node A to node T.
-The shortest path from node A to node T is A -&gt; C -&gt; M -&gt; N -&gt; P -&gt; S -&gt; T.</t>
-  </si>
-  <si>
-    <t>Output: 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t>A -&gt; C -&gt; F -&gt; P -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use a graph traversal algorithm such as Breadth First Search (BFS) or Dijkstra's algorithm. 
+In this case, since the graph is unweighted, we can use BFS to find the shortest path.
+Starting from node A, we look at its neighbors (B, C), then look at the neighbors of its neighbors (D, E), and so on until we reach node T.
+Here's the step-by-step process:
+1. Initialize an empty queue and add node A to the queue.
+2. Initialize an empty visited array to keep track of visited nodes.
+3. Start a while loop: while the queue is not empty,
+    a. Dequeue a node from the queue and mark it as visited.
+    b. Check if the dequeued node is the target node T. If it is, break out of the loop.
+    c. Otherwise, get the neighbors of the dequeued node that have not been visited yet, add them to the queue, and mark them as visited.
+4. Once we reach node T, we can backtrack to find the shortest path from A to T by following the parent pointers from T back to A.
+Using this algorithm, the shortest path from node A to node T is:
+A -&gt; C -&gt; F -&gt; T
+Note: This is just one of the possible shortest paths. There may be other paths with the same length.</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node R?
+Example 1: what is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
  B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -206,60 +249,45 @@
  Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ F 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ W 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; J -&gt; V -&gt; U -&gt; P -&gt; Q -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use a graph traversal algorithm such as Breadth-First Search (BFS) or Dijkstra's algorithm.
-Using BFS:
-1. Initialize an empty queue and an empty set to track visited nodes.
-2. Enqueue node A into the queue.
-3. While the queue is not empty:
-     - Dequeue a node from the front of the queue.
-     - If the dequeued node is T, we have found the shortest path.
-     - Otherwise, enqueue all the neighboring nodes of the dequeued node that have not been visited before.
-4. If we reach this point, it means that there is no path from A to T.
-Using Dijkstra's algorithm:
-1. Initialize an empty priority queue and an empty dictionary to track the distance from A to each node.
-2. Enqueue (A, 0) into the priority queue, where 0 is the initial distance.
-3. While the priority queue is not empty:
-     - Dequeue a node from the front of the priority queue.
-     - If the dequeued node is T, we have found the shortest path.
-     - Otherwise, update the distance of each neighboring node of the dequeued node and enqueue it into the priority queue.
-4. If we reach this point, it means that there is no path from A to T.
-Note: In the adjacency matrix given, there is no connection between node A and node T. Therefore, there is no shortest path from A to T.</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Output: 0/0</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; P -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; T</t>
+  </si>
+  <si>
+    <t>5/8</t>
   </si>
 </sst>
 </file>
@@ -745,10 +773,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
